--- a/Combined_Authors.xlsx
+++ b/Combined_Authors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\1161\bookAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05DC038-72D7-4676-8FB9-D55153A878A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A8C77B-D7A1-46E9-B4F4-031B1661AE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1590" windowWidth="16875" windowHeight="10522" xr2:uid="{BED0BC5F-40E7-4DCC-B7E1-D861CCAE19A8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{BED0BC5F-40E7-4DCC-B7E1-D861CCAE19A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_Author Data" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,6 +1529,9 @@
           <cell r="F1" t="str">
             <v>Nationality</v>
           </cell>
+          <cell r="G1" t="str">
+            <v>DeadorAlive</v>
+          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -1553,6 +1552,9 @@
           <cell r="F2" t="str">
             <v>French</v>
           </cell>
+          <cell r="G2" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -1573,6 +1575,9 @@
           <cell r="F3" t="str">
             <v>American</v>
           </cell>
+          <cell r="G3" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -1593,6 +1598,9 @@
           <cell r="F4" t="str">
             <v>British</v>
           </cell>
+          <cell r="G4" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -1613,6 +1621,9 @@
           <cell r="F5" t="str">
             <v>Irish</v>
           </cell>
+          <cell r="G5" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -1633,6 +1644,9 @@
           <cell r="F6" t="str">
             <v>British</v>
           </cell>
+          <cell r="G6" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -1653,6 +1667,9 @@
           <cell r="F7" t="str">
             <v>German</v>
           </cell>
+          <cell r="G7" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -1673,6 +1690,9 @@
           <cell r="F8" t="str">
             <v>Swiss</v>
           </cell>
+          <cell r="G8" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -1693,6 +1713,9 @@
           <cell r="F9" t="str">
             <v>American</v>
           </cell>
+          <cell r="G9" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -1713,6 +1736,9 @@
           <cell r="F10" t="str">
             <v>British</v>
           </cell>
+          <cell r="G10" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -1733,6 +1759,9 @@
           <cell r="F11" t="str">
             <v>British</v>
           </cell>
+          <cell r="G11" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -1753,6 +1782,9 @@
           <cell r="F12" t="str">
             <v>Swedish</v>
           </cell>
+          <cell r="G12" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -1773,6 +1805,9 @@
           <cell r="F13" t="str">
             <v>American</v>
           </cell>
+          <cell r="G13" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -1793,6 +1828,9 @@
           <cell r="F14" t="str">
             <v>American</v>
           </cell>
+          <cell r="G14" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -1813,6 +1851,9 @@
           <cell r="F15" t="str">
             <v>Irish</v>
           </cell>
+          <cell r="G15" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -1833,6 +1874,9 @@
           <cell r="F16" t="str">
             <v>British</v>
           </cell>
+          <cell r="G16" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -1853,6 +1897,9 @@
           <cell r="F17" t="str">
             <v>British</v>
           </cell>
+          <cell r="G17" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
@@ -1873,6 +1920,9 @@
           <cell r="F18" t="str">
             <v>French</v>
           </cell>
+          <cell r="G18" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
@@ -1893,6 +1943,9 @@
           <cell r="F19" t="str">
             <v>American</v>
           </cell>
+          <cell r="G19" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
@@ -1913,6 +1966,9 @@
           <cell r="F20" t="str">
             <v>British</v>
           </cell>
+          <cell r="G20" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
@@ -1933,6 +1989,9 @@
           <cell r="F21" t="str">
             <v>American</v>
           </cell>
+          <cell r="G21" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -1953,6 +2012,9 @@
           <cell r="F22" t="str">
             <v>British</v>
           </cell>
+          <cell r="G22" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
@@ -1973,6 +2035,9 @@
           <cell r="F23" t="str">
             <v>British</v>
           </cell>
+          <cell r="G23" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
@@ -1993,6 +2058,9 @@
           <cell r="F24" t="str">
             <v>Chinese</v>
           </cell>
+          <cell r="G24" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
@@ -2013,6 +2081,9 @@
           <cell r="F25" t="str">
             <v>Australian</v>
           </cell>
+          <cell r="G25" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
@@ -2033,6 +2104,9 @@
           <cell r="F26" t="str">
             <v>British</v>
           </cell>
+          <cell r="G26" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
@@ -2053,6 +2127,9 @@
           <cell r="F27" t="str">
             <v>American</v>
           </cell>
+          <cell r="G27" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
@@ -2073,6 +2150,9 @@
           <cell r="F28" t="str">
             <v xml:space="preserve">Scottish </v>
           </cell>
+          <cell r="G28" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
@@ -2093,6 +2173,9 @@
           <cell r="F29" t="str">
             <v>American</v>
           </cell>
+          <cell r="G29" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
@@ -2113,6 +2196,9 @@
           <cell r="F30" t="str">
             <v xml:space="preserve">Scottish </v>
           </cell>
+          <cell r="G30" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
@@ -2133,6 +2219,9 @@
           <cell r="F31" t="str">
             <v>American</v>
           </cell>
+          <cell r="G31" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -2153,6 +2242,9 @@
           <cell r="F32" t="str">
             <v>Swiss</v>
           </cell>
+          <cell r="G32" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
@@ -2173,6 +2265,9 @@
           <cell r="F33" t="str">
             <v>Canadian</v>
           </cell>
+          <cell r="G33" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
@@ -2193,6 +2288,9 @@
           <cell r="F34" t="str">
             <v>American</v>
           </cell>
+          <cell r="G34" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
@@ -2213,6 +2311,9 @@
           <cell r="F35" t="str">
             <v>American</v>
           </cell>
+          <cell r="G35" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
@@ -2233,6 +2334,9 @@
           <cell r="F36" t="str">
             <v>American</v>
           </cell>
+          <cell r="G36" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
@@ -2253,6 +2357,9 @@
           <cell r="F37" t="str">
             <v>American</v>
           </cell>
+          <cell r="G37" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
@@ -2273,6 +2380,9 @@
           <cell r="F38" t="str">
             <v>American</v>
           </cell>
+          <cell r="G38" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
@@ -2293,6 +2403,9 @@
           <cell r="F39" t="str">
             <v>Australian</v>
           </cell>
+          <cell r="G39" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
@@ -2313,6 +2426,9 @@
           <cell r="F40" t="str">
             <v>Cypriot</v>
           </cell>
+          <cell r="G40" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
@@ -2333,6 +2449,9 @@
           <cell r="F41" t="str">
             <v>American</v>
           </cell>
+          <cell r="G41" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
@@ -2353,6 +2472,9 @@
           <cell r="F42" t="str">
             <v>American</v>
           </cell>
+          <cell r="G42" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
@@ -2373,6 +2495,9 @@
           <cell r="F43" t="str">
             <v>American</v>
           </cell>
+          <cell r="G43" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
@@ -2393,6 +2518,9 @@
           <cell r="F44" t="str">
             <v>Australian</v>
           </cell>
+          <cell r="G44" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
@@ -2413,6 +2541,9 @@
           <cell r="F45" t="str">
             <v>Japanese</v>
           </cell>
+          <cell r="G45" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
@@ -2433,6 +2564,9 @@
           <cell r="F46" t="str">
             <v>British</v>
           </cell>
+          <cell r="G46" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
@@ -2453,6 +2587,9 @@
           <cell r="F47" t="str">
             <v>American</v>
           </cell>
+          <cell r="G47" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
@@ -2473,6 +2610,9 @@
           <cell r="F48" t="str">
             <v>Australian</v>
           </cell>
+          <cell r="G48" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
@@ -2493,6 +2633,9 @@
           <cell r="F49" t="str">
             <v>British</v>
           </cell>
+          <cell r="G49" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
@@ -2513,6 +2656,9 @@
           <cell r="F50" t="str">
             <v>American</v>
           </cell>
+          <cell r="G50" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
@@ -2533,6 +2679,9 @@
           <cell r="F51" t="str">
             <v>American</v>
           </cell>
+          <cell r="G51" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
@@ -2553,6 +2702,9 @@
           <cell r="F52" t="str">
             <v>British</v>
           </cell>
+          <cell r="G52" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
@@ -2573,6 +2725,9 @@
           <cell r="F53" t="str">
             <v>American</v>
           </cell>
+          <cell r="G53" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
@@ -2593,6 +2748,9 @@
           <cell r="F54" t="str">
             <v>Korean</v>
           </cell>
+          <cell r="G54" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
@@ -2613,6 +2771,9 @@
           <cell r="F55" t="str">
             <v>American</v>
           </cell>
+          <cell r="G55" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
@@ -2633,6 +2794,9 @@
           <cell r="F56" t="str">
             <v>Australian</v>
           </cell>
+          <cell r="G56" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
@@ -2653,6 +2817,9 @@
           <cell r="F57" t="str">
             <v>Canadian</v>
           </cell>
+          <cell r="G57" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
@@ -2673,6 +2840,9 @@
           <cell r="F58" t="str">
             <v>Indian</v>
           </cell>
+          <cell r="G58" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
@@ -2693,6 +2863,9 @@
           <cell r="F59" t="str">
             <v>American</v>
           </cell>
+          <cell r="G59" t="str">
+            <v>Alive</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
@@ -2713,6 +2886,9 @@
           <cell r="F60" t="str">
             <v>American</v>
           </cell>
+          <cell r="G60" t="str">
+            <v>Dead</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
@@ -2732,6 +2908,9 @@
           </cell>
           <cell r="F61" t="str">
             <v>American</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>Dead</v>
           </cell>
         </row>
         <row r="62">
@@ -3101,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77C58C8-1154-4E0A-B0F2-18DF9119B045}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3113,7 +3292,7 @@
     <col min="10" max="10" width="13.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1">
         <f>Goodreads_Data!A1</f>
         <v>0</v>
@@ -3158,8 +3337,12 @@
         <f>My_Data!F1</f>
         <v>Nationality</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1" t="str">
+        <f>My_Data!G1</f>
+        <v>DeadorAlive</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>Goodreads_Data!A2</f>
         <v>0</v>
@@ -3204,8 +3387,12 @@
         <f>My_Data!F2</f>
         <v>French</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" t="str">
+        <f>My_Data!G2</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>Goodreads_Data!A3</f>
         <v>1</v>
@@ -3250,8 +3437,12 @@
         <f>My_Data!F3</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3" t="str">
+        <f>My_Data!G3</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>Goodreads_Data!A4</f>
         <v>2</v>
@@ -3296,8 +3487,12 @@
         <f>My_Data!F4</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" t="str">
+        <f>My_Data!G4</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>Goodreads_Data!A5</f>
         <v>3</v>
@@ -3342,8 +3537,12 @@
         <f>My_Data!F5</f>
         <v>Irish</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" t="str">
+        <f>My_Data!G5</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>Goodreads_Data!A6</f>
         <v>4</v>
@@ -3388,8 +3587,12 @@
         <f>My_Data!F6</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L6" t="str">
+        <f>My_Data!G6</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>Goodreads_Data!A7</f>
         <v>5</v>
@@ -3434,8 +3637,12 @@
         <f>My_Data!F7</f>
         <v>German</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L7" t="str">
+        <f>My_Data!G7</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>Goodreads_Data!A8</f>
         <v>6</v>
@@ -3480,8 +3687,12 @@
         <f>My_Data!F8</f>
         <v>Swiss</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L8" t="str">
+        <f>My_Data!G8</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>Goodreads_Data!A9</f>
         <v>7</v>
@@ -3526,8 +3737,12 @@
         <f>My_Data!F9</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L9" t="str">
+        <f>My_Data!G9</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>Goodreads_Data!A10</f>
         <v>8</v>
@@ -3572,8 +3787,12 @@
         <f>My_Data!F10</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L10" t="str">
+        <f>My_Data!G10</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>Goodreads_Data!A11</f>
         <v>9</v>
@@ -3618,8 +3837,12 @@
         <f>My_Data!F11</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L11" t="str">
+        <f>My_Data!G11</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>Goodreads_Data!A12</f>
         <v>10</v>
@@ -3664,8 +3887,12 @@
         <f>My_Data!F12</f>
         <v>Swedish</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L12" t="str">
+        <f>My_Data!G12</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>Goodreads_Data!A13</f>
         <v>11</v>
@@ -3710,8 +3937,12 @@
         <f>My_Data!F13</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L13" t="str">
+        <f>My_Data!G13</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>Goodreads_Data!A14</f>
         <v>12</v>
@@ -3756,8 +3987,12 @@
         <f>My_Data!F14</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L14" t="str">
+        <f>My_Data!G14</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>Goodreads_Data!A15</f>
         <v>13</v>
@@ -3802,8 +4037,12 @@
         <f>My_Data!F15</f>
         <v>Irish</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L15" t="str">
+        <f>My_Data!G15</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>Goodreads_Data!A16</f>
         <v>14</v>
@@ -3848,8 +4087,12 @@
         <f>My_Data!F16</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L16" t="str">
+        <f>My_Data!G16</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>Goodreads_Data!A17</f>
         <v>15</v>
@@ -3894,8 +4137,12 @@
         <f>My_Data!F17</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L17" t="str">
+        <f>My_Data!G17</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>Goodreads_Data!A18</f>
         <v>16</v>
@@ -3940,8 +4187,12 @@
         <f>My_Data!F18</f>
         <v>French</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L18" t="str">
+        <f>My_Data!G18</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <f>Goodreads_Data!A19</f>
         <v>17</v>
@@ -3986,8 +4237,12 @@
         <f>My_Data!F19</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L19" t="str">
+        <f>My_Data!G19</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <f>Goodreads_Data!A20</f>
         <v>18</v>
@@ -4032,8 +4287,12 @@
         <f>My_Data!F20</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L20" t="str">
+        <f>My_Data!G20</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <f>Goodreads_Data!A21</f>
         <v>19</v>
@@ -4078,8 +4337,12 @@
         <f>My_Data!F21</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L21" t="str">
+        <f>My_Data!G21</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>Goodreads_Data!A22</f>
         <v>20</v>
@@ -4124,8 +4387,12 @@
         <f>My_Data!F22</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L22" t="str">
+        <f>My_Data!G22</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>Goodreads_Data!A23</f>
         <v>21</v>
@@ -4170,8 +4437,12 @@
         <f>My_Data!F23</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L23" t="str">
+        <f>My_Data!G23</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>Goodreads_Data!A24</f>
         <v>22</v>
@@ -4216,8 +4487,12 @@
         <f>My_Data!F24</f>
         <v>Chinese</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L24" t="str">
+        <f>My_Data!G24</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>Goodreads_Data!A25</f>
         <v>23</v>
@@ -4262,8 +4537,12 @@
         <f>My_Data!F25</f>
         <v>Australian</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L25" t="str">
+        <f>My_Data!G25</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>Goodreads_Data!A26</f>
         <v>24</v>
@@ -4308,8 +4587,12 @@
         <f>My_Data!F26</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L26" t="str">
+        <f>My_Data!G26</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>Goodreads_Data!A27</f>
         <v>25</v>
@@ -4354,8 +4637,12 @@
         <f>My_Data!F27</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L27" t="str">
+        <f>My_Data!G27</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>Goodreads_Data!A28</f>
         <v>26</v>
@@ -4400,8 +4687,12 @@
         <f>My_Data!F28</f>
         <v xml:space="preserve">Scottish </v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L28" t="str">
+        <f>My_Data!G28</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>Goodreads_Data!A29</f>
         <v>27</v>
@@ -4446,8 +4737,12 @@
         <f>My_Data!F29</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L29" t="str">
+        <f>My_Data!G29</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>Goodreads_Data!A30</f>
         <v>28</v>
@@ -4492,8 +4787,12 @@
         <f>My_Data!F30</f>
         <v xml:space="preserve">Scottish </v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L30" t="str">
+        <f>My_Data!G30</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>Goodreads_Data!A31</f>
         <v>29</v>
@@ -4538,8 +4837,12 @@
         <f>My_Data!F31</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L31" t="str">
+        <f>My_Data!G31</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>Goodreads_Data!A32</f>
         <v>30</v>
@@ -4584,8 +4887,12 @@
         <f>My_Data!F32</f>
         <v>Swiss</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L32" t="str">
+        <f>My_Data!G32</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>Goodreads_Data!A33</f>
         <v>31</v>
@@ -4630,8 +4937,12 @@
         <f>My_Data!F33</f>
         <v>Canadian</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L33" t="str">
+        <f>My_Data!G33</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>Goodreads_Data!A34</f>
         <v>32</v>
@@ -4676,8 +4987,12 @@
         <f>My_Data!F34</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L34" t="str">
+        <f>My_Data!G34</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>Goodreads_Data!A35</f>
         <v>33</v>
@@ -4722,8 +5037,12 @@
         <f>My_Data!F35</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L35" t="str">
+        <f>My_Data!G35</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>Goodreads_Data!A36</f>
         <v>34</v>
@@ -4768,8 +5087,12 @@
         <f>My_Data!F36</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L36" t="str">
+        <f>My_Data!G36</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>Goodreads_Data!A37</f>
         <v>35</v>
@@ -4814,8 +5137,12 @@
         <f>My_Data!F37</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L37" t="str">
+        <f>My_Data!G37</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <f>Goodreads_Data!A38</f>
         <v>36</v>
@@ -4860,8 +5187,12 @@
         <f>My_Data!F38</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L38" t="str">
+        <f>My_Data!G38</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <f>Goodreads_Data!A39</f>
         <v>37</v>
@@ -4906,8 +5237,12 @@
         <f>My_Data!F39</f>
         <v>Australian</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L39" t="str">
+        <f>My_Data!G39</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>Goodreads_Data!A40</f>
         <v>38</v>
@@ -4952,8 +5287,12 @@
         <f>My_Data!F40</f>
         <v>Cypriot</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L40" t="str">
+        <f>My_Data!G40</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>Goodreads_Data!A41</f>
         <v>39</v>
@@ -4998,8 +5337,12 @@
         <f>My_Data!F41</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L41" t="str">
+        <f>My_Data!G41</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <f>Goodreads_Data!A42</f>
         <v>40</v>
@@ -5044,8 +5387,12 @@
         <f>My_Data!F42</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L42" t="str">
+        <f>My_Data!G42</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <f>Goodreads_Data!A43</f>
         <v>41</v>
@@ -5090,8 +5437,12 @@
         <f>My_Data!F43</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L43" t="str">
+        <f>My_Data!G43</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>Goodreads_Data!A44</f>
         <v>42</v>
@@ -5136,8 +5487,12 @@
         <f>My_Data!F44</f>
         <v>Australian</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L44" t="str">
+        <f>My_Data!G44</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>Goodreads_Data!A45</f>
         <v>43</v>
@@ -5182,8 +5537,12 @@
         <f>My_Data!F45</f>
         <v>Japanese</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L45" t="str">
+        <f>My_Data!G45</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <f>Goodreads_Data!A46</f>
         <v>44</v>
@@ -5228,8 +5587,12 @@
         <f>My_Data!F46</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L46" t="str">
+        <f>My_Data!G46</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <f>Goodreads_Data!A47</f>
         <v>45</v>
@@ -5274,8 +5637,12 @@
         <f>My_Data!F47</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L47" t="str">
+        <f>My_Data!G47</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>Goodreads_Data!A48</f>
         <v>46</v>
@@ -5320,8 +5687,12 @@
         <f>My_Data!F48</f>
         <v>Australian</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L48" t="str">
+        <f>My_Data!G48</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>Goodreads_Data!A49</f>
         <v>47</v>
@@ -5366,8 +5737,12 @@
         <f>My_Data!F49</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L49" t="str">
+        <f>My_Data!G49</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>Goodreads_Data!A50</f>
         <v>48</v>
@@ -5412,8 +5787,12 @@
         <f>My_Data!F50</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L50" t="str">
+        <f>My_Data!G50</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <f>Goodreads_Data!A51</f>
         <v>49</v>
@@ -5458,8 +5837,12 @@
         <f>My_Data!F51</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L51" t="str">
+        <f>My_Data!G51</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <f>Goodreads_Data!A52</f>
         <v>50</v>
@@ -5504,8 +5887,12 @@
         <f>My_Data!F52</f>
         <v>British</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L52" t="str">
+        <f>My_Data!G52</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <f>Goodreads_Data!A53</f>
         <v>51</v>
@@ -5550,8 +5937,12 @@
         <f>My_Data!F53</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L53" t="str">
+        <f>My_Data!G53</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <f>Goodreads_Data!A54</f>
         <v>52</v>
@@ -5596,8 +5987,12 @@
         <f>My_Data!F54</f>
         <v>Korean</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L54" t="str">
+        <f>My_Data!G54</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <f>Goodreads_Data!A55</f>
         <v>53</v>
@@ -5642,8 +6037,12 @@
         <f>My_Data!F55</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L55" t="str">
+        <f>My_Data!G55</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <f>Goodreads_Data!A56</f>
         <v>54</v>
@@ -5688,8 +6087,12 @@
         <f>My_Data!F56</f>
         <v>Australian</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L56" t="str">
+        <f>My_Data!G56</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>Goodreads_Data!A57</f>
         <v>55</v>
@@ -5734,8 +6137,12 @@
         <f>My_Data!F57</f>
         <v>Canadian</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L57" t="str">
+        <f>My_Data!G57</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>Goodreads_Data!A58</f>
         <v>56</v>
@@ -5780,8 +6187,12 @@
         <f>My_Data!F58</f>
         <v>Indian</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L58" t="str">
+        <f>My_Data!G58</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <f>Goodreads_Data!A59</f>
         <v>57</v>
@@ -5826,8 +6237,12 @@
         <f>My_Data!F59</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L59" t="str">
+        <f>My_Data!G59</f>
+        <v>Alive</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <f>Goodreads_Data!A60</f>
         <v>58</v>
@@ -5872,8 +6287,12 @@
         <f>My_Data!F60</f>
         <v>American</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L60" t="str">
+        <f>My_Data!G60</f>
+        <v>Dead</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <f>Goodreads_Data!A61</f>
         <v>59</v>
@@ -5917,6 +6336,10 @@
       <c r="K61" t="str">
         <f>My_Data!F61</f>
         <v>American</v>
+      </c>
+      <c r="L61" t="str">
+        <f>My_Data!G61</f>
+        <v>Dead</v>
       </c>
     </row>
   </sheetData>
@@ -8374,9 +8797,9 @@
         <f>[2]Sheet1!F1</f>
         <v>Nationality</v>
       </c>
-      <c r="G1">
+      <c r="G1" t="str">
         <f>[2]Sheet1!G1</f>
-        <v>0</v>
+        <v>DeadorAlive</v>
       </c>
       <c r="H1">
         <f>[2]Sheet1!H1</f>
@@ -8424,9 +8847,9 @@
         <f>[2]Sheet1!F2</f>
         <v>French</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="str">
         <f>[2]Sheet1!G2</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H2">
         <f>[2]Sheet1!H2</f>
@@ -8474,9 +8897,9 @@
         <f>[2]Sheet1!F3</f>
         <v>American</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="str">
         <f>[2]Sheet1!G3</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H3">
         <f>[2]Sheet1!H3</f>
@@ -8524,9 +8947,9 @@
         <f>[2]Sheet1!F4</f>
         <v>British</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="str">
         <f>[2]Sheet1!G4</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H4">
         <f>[2]Sheet1!H4</f>
@@ -8574,9 +8997,9 @@
         <f>[2]Sheet1!F5</f>
         <v>Irish</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="str">
         <f>[2]Sheet1!G5</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H5">
         <f>[2]Sheet1!H5</f>
@@ -8624,9 +9047,9 @@
         <f>[2]Sheet1!F6</f>
         <v>British</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="str">
         <f>[2]Sheet1!G6</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H6">
         <f>[2]Sheet1!H6</f>
@@ -8674,9 +9097,9 @@
         <f>[2]Sheet1!F7</f>
         <v>German</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="str">
         <f>[2]Sheet1!G7</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H7">
         <f>[2]Sheet1!H7</f>
@@ -8724,9 +9147,9 @@
         <f>[2]Sheet1!F8</f>
         <v>Swiss</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="str">
         <f>[2]Sheet1!G8</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H8">
         <f>[2]Sheet1!H8</f>
@@ -8774,9 +9197,9 @@
         <f>[2]Sheet1!F9</f>
         <v>American</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="str">
         <f>[2]Sheet1!G9</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H9">
         <f>[2]Sheet1!H9</f>
@@ -8824,9 +9247,9 @@
         <f>[2]Sheet1!F10</f>
         <v>British</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="str">
         <f>[2]Sheet1!G10</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H10">
         <f>[2]Sheet1!H10</f>
@@ -8874,9 +9297,9 @@
         <f>[2]Sheet1!F11</f>
         <v>British</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="str">
         <f>[2]Sheet1!G11</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H11">
         <f>[2]Sheet1!H11</f>
@@ -8924,9 +9347,9 @@
         <f>[2]Sheet1!F12</f>
         <v>Swedish</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="str">
         <f>[2]Sheet1!G12</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H12">
         <f>[2]Sheet1!H12</f>
@@ -8974,9 +9397,9 @@
         <f>[2]Sheet1!F13</f>
         <v>American</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="str">
         <f>[2]Sheet1!G13</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H13">
         <f>[2]Sheet1!H13</f>
@@ -9024,9 +9447,9 @@
         <f>[2]Sheet1!F14</f>
         <v>American</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="str">
         <f>[2]Sheet1!G14</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H14">
         <f>[2]Sheet1!H14</f>
@@ -9074,9 +9497,9 @@
         <f>[2]Sheet1!F15</f>
         <v>Irish</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="str">
         <f>[2]Sheet1!G15</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H15">
         <f>[2]Sheet1!H15</f>
@@ -9124,9 +9547,9 @@
         <f>[2]Sheet1!F16</f>
         <v>British</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="str">
         <f>[2]Sheet1!G16</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H16">
         <f>[2]Sheet1!H16</f>
@@ -9174,9 +9597,9 @@
         <f>[2]Sheet1!F17</f>
         <v>British</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="str">
         <f>[2]Sheet1!G17</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H17">
         <f>[2]Sheet1!H17</f>
@@ -9224,9 +9647,9 @@
         <f>[2]Sheet1!F18</f>
         <v>French</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="str">
         <f>[2]Sheet1!G18</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H18">
         <f>[2]Sheet1!H18</f>
@@ -9274,9 +9697,9 @@
         <f>[2]Sheet1!F19</f>
         <v>American</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="str">
         <f>[2]Sheet1!G19</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H19">
         <f>[2]Sheet1!H19</f>
@@ -9324,9 +9747,9 @@
         <f>[2]Sheet1!F20</f>
         <v>British</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="str">
         <f>[2]Sheet1!G20</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H20">
         <f>[2]Sheet1!H20</f>
@@ -9374,9 +9797,9 @@
         <f>[2]Sheet1!F21</f>
         <v>American</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="str">
         <f>[2]Sheet1!G21</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H21">
         <f>[2]Sheet1!H21</f>
@@ -9424,9 +9847,9 @@
         <f>[2]Sheet1!F22</f>
         <v>British</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="str">
         <f>[2]Sheet1!G22</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H22">
         <f>[2]Sheet1!H22</f>
@@ -9474,9 +9897,9 @@
         <f>[2]Sheet1!F23</f>
         <v>British</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="str">
         <f>[2]Sheet1!G23</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H23">
         <f>[2]Sheet1!H23</f>
@@ -9524,9 +9947,9 @@
         <f>[2]Sheet1!F24</f>
         <v>Chinese</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="str">
         <f>[2]Sheet1!G24</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H24">
         <f>[2]Sheet1!H24</f>
@@ -9574,9 +9997,9 @@
         <f>[2]Sheet1!F25</f>
         <v>Australian</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="str">
         <f>[2]Sheet1!G25</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H25">
         <f>[2]Sheet1!H25</f>
@@ -9624,9 +10047,9 @@
         <f>[2]Sheet1!F26</f>
         <v>British</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="str">
         <f>[2]Sheet1!G26</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H26">
         <f>[2]Sheet1!H26</f>
@@ -9674,9 +10097,9 @@
         <f>[2]Sheet1!F27</f>
         <v>American</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="str">
         <f>[2]Sheet1!G27</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H27">
         <f>[2]Sheet1!H27</f>
@@ -9724,9 +10147,9 @@
         <f>[2]Sheet1!F28</f>
         <v xml:space="preserve">Scottish </v>
       </c>
-      <c r="G28">
+      <c r="G28" t="str">
         <f>[2]Sheet1!G28</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H28">
         <f>[2]Sheet1!H28</f>
@@ -9774,9 +10197,9 @@
         <f>[2]Sheet1!F29</f>
         <v>American</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="str">
         <f>[2]Sheet1!G29</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H29">
         <f>[2]Sheet1!H29</f>
@@ -9824,9 +10247,9 @@
         <f>[2]Sheet1!F30</f>
         <v xml:space="preserve">Scottish </v>
       </c>
-      <c r="G30">
+      <c r="G30" t="str">
         <f>[2]Sheet1!G30</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H30">
         <f>[2]Sheet1!H30</f>
@@ -9874,9 +10297,9 @@
         <f>[2]Sheet1!F31</f>
         <v>American</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="str">
         <f>[2]Sheet1!G31</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H31">
         <f>[2]Sheet1!H31</f>
@@ -9924,9 +10347,9 @@
         <f>[2]Sheet1!F32</f>
         <v>Swiss</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="str">
         <f>[2]Sheet1!G32</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H32">
         <f>[2]Sheet1!H32</f>
@@ -9974,9 +10397,9 @@
         <f>[2]Sheet1!F33</f>
         <v>Canadian</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="str">
         <f>[2]Sheet1!G33</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H33">
         <f>[2]Sheet1!H33</f>
@@ -10024,9 +10447,9 @@
         <f>[2]Sheet1!F34</f>
         <v>American</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="str">
         <f>[2]Sheet1!G34</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H34">
         <f>[2]Sheet1!H34</f>
@@ -10074,9 +10497,9 @@
         <f>[2]Sheet1!F35</f>
         <v>American</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="str">
         <f>[2]Sheet1!G35</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H35">
         <f>[2]Sheet1!H35</f>
@@ -10124,9 +10547,9 @@
         <f>[2]Sheet1!F36</f>
         <v>American</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="str">
         <f>[2]Sheet1!G36</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H36">
         <f>[2]Sheet1!H36</f>
@@ -10174,9 +10597,9 @@
         <f>[2]Sheet1!F37</f>
         <v>American</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="str">
         <f>[2]Sheet1!G37</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H37">
         <f>[2]Sheet1!H37</f>
@@ -10224,9 +10647,9 @@
         <f>[2]Sheet1!F38</f>
         <v>American</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="str">
         <f>[2]Sheet1!G38</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H38">
         <f>[2]Sheet1!H38</f>
@@ -10274,9 +10697,9 @@
         <f>[2]Sheet1!F39</f>
         <v>Australian</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="str">
         <f>[2]Sheet1!G39</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H39">
         <f>[2]Sheet1!H39</f>
@@ -10324,9 +10747,9 @@
         <f>[2]Sheet1!F40</f>
         <v>Cypriot</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="str">
         <f>[2]Sheet1!G40</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H40">
         <f>[2]Sheet1!H40</f>
@@ -10374,9 +10797,9 @@
         <f>[2]Sheet1!F41</f>
         <v>American</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="str">
         <f>[2]Sheet1!G41</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H41">
         <f>[2]Sheet1!H41</f>
@@ -10424,9 +10847,9 @@
         <f>[2]Sheet1!F42</f>
         <v>American</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="str">
         <f>[2]Sheet1!G42</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H42">
         <f>[2]Sheet1!H42</f>
@@ -10474,9 +10897,9 @@
         <f>[2]Sheet1!F43</f>
         <v>American</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="str">
         <f>[2]Sheet1!G43</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H43">
         <f>[2]Sheet1!H43</f>
@@ -10524,9 +10947,9 @@
         <f>[2]Sheet1!F44</f>
         <v>Australian</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="str">
         <f>[2]Sheet1!G44</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H44">
         <f>[2]Sheet1!H44</f>
@@ -10574,9 +10997,9 @@
         <f>[2]Sheet1!F45</f>
         <v>Japanese</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="str">
         <f>[2]Sheet1!G45</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H45">
         <f>[2]Sheet1!H45</f>
@@ -10624,9 +11047,9 @@
         <f>[2]Sheet1!F46</f>
         <v>British</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="str">
         <f>[2]Sheet1!G46</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H46">
         <f>[2]Sheet1!H46</f>
@@ -10674,9 +11097,9 @@
         <f>[2]Sheet1!F47</f>
         <v>American</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="str">
         <f>[2]Sheet1!G47</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H47">
         <f>[2]Sheet1!H47</f>
@@ -10724,9 +11147,9 @@
         <f>[2]Sheet1!F48</f>
         <v>Australian</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="str">
         <f>[2]Sheet1!G48</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H48">
         <f>[2]Sheet1!H48</f>
@@ -10774,9 +11197,9 @@
         <f>[2]Sheet1!F49</f>
         <v>British</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="str">
         <f>[2]Sheet1!G49</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H49">
         <f>[2]Sheet1!H49</f>
@@ -10824,9 +11247,9 @@
         <f>[2]Sheet1!F50</f>
         <v>American</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="str">
         <f>[2]Sheet1!G50</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H50">
         <f>[2]Sheet1!H50</f>
@@ -10874,9 +11297,9 @@
         <f>[2]Sheet1!F51</f>
         <v>American</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="str">
         <f>[2]Sheet1!G51</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H51">
         <f>[2]Sheet1!H51</f>
@@ -10924,9 +11347,9 @@
         <f>[2]Sheet1!F52</f>
         <v>British</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="str">
         <f>[2]Sheet1!G52</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H52">
         <f>[2]Sheet1!H52</f>
@@ -10974,9 +11397,9 @@
         <f>[2]Sheet1!F53</f>
         <v>American</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="str">
         <f>[2]Sheet1!G53</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H53">
         <f>[2]Sheet1!H53</f>
@@ -11024,9 +11447,9 @@
         <f>[2]Sheet1!F54</f>
         <v>Korean</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="str">
         <f>[2]Sheet1!G54</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H54">
         <f>[2]Sheet1!H54</f>
@@ -11074,9 +11497,9 @@
         <f>[2]Sheet1!F55</f>
         <v>American</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="str">
         <f>[2]Sheet1!G55</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H55">
         <f>[2]Sheet1!H55</f>
@@ -11124,9 +11547,9 @@
         <f>[2]Sheet1!F56</f>
         <v>Australian</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="str">
         <f>[2]Sheet1!G56</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H56">
         <f>[2]Sheet1!H56</f>
@@ -11174,9 +11597,9 @@
         <f>[2]Sheet1!F57</f>
         <v>Canadian</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="str">
         <f>[2]Sheet1!G57</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H57">
         <f>[2]Sheet1!H57</f>
@@ -11224,9 +11647,9 @@
         <f>[2]Sheet1!F58</f>
         <v>Indian</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="str">
         <f>[2]Sheet1!G58</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H58">
         <f>[2]Sheet1!H58</f>
@@ -11274,9 +11697,9 @@
         <f>[2]Sheet1!F59</f>
         <v>American</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="str">
         <f>[2]Sheet1!G59</f>
-        <v>0</v>
+        <v>Alive</v>
       </c>
       <c r="H59">
         <f>[2]Sheet1!H59</f>
@@ -11324,9 +11747,9 @@
         <f>[2]Sheet1!F60</f>
         <v>American</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="str">
         <f>[2]Sheet1!G60</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H60">
         <f>[2]Sheet1!H60</f>
@@ -11374,9 +11797,9 @@
         <f>[2]Sheet1!F61</f>
         <v>American</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="str">
         <f>[2]Sheet1!G61</f>
-        <v>0</v>
+        <v>Dead</v>
       </c>
       <c r="H61">
         <f>[2]Sheet1!H61</f>
